--- a/salidas/feature_importances.xlsx
+++ b/salidas/feature_importances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2886582610474926</v>
+        <v>0.5043549482882367</v>
       </c>
     </row>
     <row r="3">
@@ -468,72 +468,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1902828008294581</v>
+        <v>0.2444193680941036</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DistanceFromHome</t>
+          <t>YearsAtCompany</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1518731337137145</v>
+        <v>0.1670776488095214</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>YearsAtCompany</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1331074350141818</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>NumCompaniesWorked</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09280055567948857</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>EnvironmentSatisfaction</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08086933399328199</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="inlineStr">
         <is>
           <t>JobSatisfaction</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0.06240847972238265</v>
+      <c r="C5" t="n">
+        <v>0.08414803480813839</v>
       </c>
     </row>
   </sheetData>
